--- a/testcases/HarrisonFord-testData.xlsx
+++ b/testcases/HarrisonFord-testData.xlsx
@@ -8,24 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucchamberland/Downloads/luc/Karma AI/movies/testcases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A516F7D8-90E2-6C4F-A295-929B4414852E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D2ABC3-ACBB-8549-9AB4-4A037D97A7F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{27E4A10D-2F1B-C94D-B346-84002A1AA582}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19720" xr2:uid="{27E4A10D-2F1B-C94D-B346-84002A1AA582}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$58</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$G$3:$G$14</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$H$3:$H$14</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$I$3:$I$14</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$G$3:$G$14</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$H$3:$H$14</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$I$3:$I$14</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$G$3:$G$14</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$H$3:$H$14</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$I$3:$I$14</definedName>
     <definedName name="genres">Sheet1!$B$2:$B$58</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -208,9 +199,6 @@
     <t>Ender's Game</t>
   </si>
   <si>
-    <t>One Hundred and One Nights</t>
-  </si>
-  <si>
     <t>42</t>
   </si>
   <si>
@@ -277,9 +265,6 @@
     <t>crime, drama, romance comedy</t>
   </si>
   <si>
-    <t>error</t>
-  </si>
-  <si>
     <t>drama, romance</t>
   </si>
   <si>
@@ -428,6 +413,12 @@
   </si>
   <si>
     <t>fantasy</t>
+  </si>
+  <si>
+    <t>comedy, history, romance</t>
+  </si>
+  <si>
+    <t>Les cent et une nuits de Simon Cin√©ma</t>
   </si>
 </sst>
 </file>
@@ -585,6 +576,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-B063-A14D-ADF7-6CAA5DA0ADD5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -600,6 +596,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-B063-A14D-ADF7-6CAA5DA0ADD5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -615,6 +616,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-B063-A14D-ADF7-6CAA5DA0ADD5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -630,6 +636,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-B063-A14D-ADF7-6CAA5DA0ADD5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -645,6 +656,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-B063-A14D-ADF7-6CAA5DA0ADD5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -660,6 +676,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-B063-A14D-ADF7-6CAA5DA0ADD5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -677,6 +698,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-B063-A14D-ADF7-6CAA5DA0ADD5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -694,6 +720,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-B063-A14D-ADF7-6CAA5DA0ADD5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -711,6 +742,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-B063-A14D-ADF7-6CAA5DA0ADD5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
@@ -728,6 +764,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-B063-A14D-ADF7-6CAA5DA0ADD5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="10"/>
@@ -745,23 +786,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="11"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-B063-A14D-ADF7-6CAA5DA0ADD5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -820,9 +849,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$G$3:$G$14</c:f>
+              <c:f>Sheet1!$G$3:$G$13</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>action</c:v>
                 </c:pt>
@@ -855,19 +884,16 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>romance</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>science fiction</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$3:$H$14</c:f>
+              <c:f>Sheet1!$H$3:$H$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>19</c:v>
                 </c:pt>
@@ -875,13 +901,13 @@
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>29</c:v>
@@ -890,7 +916,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1</c:v>
@@ -899,10 +925,7 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -930,6 +953,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000019-B063-A14D-ADF7-6CAA5DA0ADD5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -945,6 +973,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001B-B063-A14D-ADF7-6CAA5DA0ADD5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -960,6 +993,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001D-B063-A14D-ADF7-6CAA5DA0ADD5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -975,6 +1013,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001F-B063-A14D-ADF7-6CAA5DA0ADD5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -990,6 +1033,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000021-B063-A14D-ADF7-6CAA5DA0ADD5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -1005,6 +1053,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000023-B063-A14D-ADF7-6CAA5DA0ADD5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -1022,6 +1075,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000025-B063-A14D-ADF7-6CAA5DA0ADD5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -1039,6 +1097,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000027-B063-A14D-ADF7-6CAA5DA0ADD5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -1056,6 +1119,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000029-B063-A14D-ADF7-6CAA5DA0ADD5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
@@ -1073,6 +1141,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002B-B063-A14D-ADF7-6CAA5DA0ADD5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="10"/>
@@ -1090,29 +1163,17 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="11"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002D-B063-A14D-ADF7-6CAA5DA0ADD5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$G$3:$G$14</c:f>
+              <c:f>Sheet1!$G$3:$G$13</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>action</c:v>
                 </c:pt>
@@ -1145,19 +1206,16 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>romance</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>science fiction</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$3:$I$14</c:f>
+              <c:f>Sheet1!$I$3:$I$13</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0.33333333333333331</c:v>
                 </c:pt>
@@ -1165,13 +1223,13 @@
                   <c:v>0.2807017543859649</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.24561403508771928</c:v>
+                  <c:v>0.26315789473684209</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.17543859649122806</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.2631578947368418E-2</c:v>
+                  <c:v>7.0175438596491224E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.50877192982456143</c:v>
@@ -1180,7 +1238,7 @@
                   <c:v>3.5087719298245612E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.7543859649122806E-2</c:v>
+                  <c:v>3.5087719298245612E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1.7543859649122806E-2</c:v>
@@ -1189,10 +1247,7 @@
                   <c:v>8.771929824561403E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.15789473684210525</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.15789473684210525</c:v>
+                  <c:v>0.17543859649122806</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1417,9 +1472,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$G$3:$G$17</c:f>
+              <c:f>Sheet1!$G$3:$G$16</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>action</c:v>
                 </c:pt>
@@ -1461,19 +1516,16 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>war</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>western</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$3:$H$17</c:f>
+              <c:f>Sheet1!$H$3:$H$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>19</c:v>
                 </c:pt>
@@ -1481,13 +1533,13 @@
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>29</c:v>
@@ -1496,7 +1548,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1</c:v>
@@ -1505,7 +1557,7 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>9</c:v>
@@ -1515,9 +1567,6 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1543,9 +1592,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$G$3:$G$17</c:f>
+              <c:f>Sheet1!$G$3:$G$16</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>action</c:v>
                 </c:pt>
@@ -1587,19 +1636,16 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>war</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>western</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$3:$I$17</c:f>
+              <c:f>Sheet1!$I$3:$I$16</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0.33333333333333331</c:v>
                 </c:pt>
@@ -1607,13 +1653,13 @@
                   <c:v>0.2807017543859649</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.24561403508771928</c:v>
+                  <c:v>0.26315789473684209</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.17543859649122806</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.2631578947368418E-2</c:v>
+                  <c:v>7.0175438596491224E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.50877192982456143</c:v>
@@ -1622,7 +1668,7 @@
                   <c:v>3.5087719298245612E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.7543859649122806E-2</c:v>
+                  <c:v>3.5087719298245612E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1.7543859649122806E-2</c:v>
@@ -1631,7 +1677,7 @@
                   <c:v>8.771929824561403E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.15789473684210525</c:v>
+                  <c:v>0.17543859649122806</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.15789473684210525</c:v>
@@ -1641,9 +1687,6 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>5.2631578947368418E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>7.0175438596491224E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3308,8 +3351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF1C84C9-872D-2149-A0DF-1B06E3AFBCB1}">
   <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3324,22 +3367,22 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" t="s">
         <v>65</v>
       </c>
-      <c r="B1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>66</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>67</v>
       </c>
-      <c r="E1" t="s">
-        <v>68</v>
-      </c>
       <c r="G1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -3347,7 +3390,7 @@
         <v>68979</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C2" t="s">
         <v>50</v>
@@ -3356,7 +3399,7 @@
         <v>1966</v>
       </c>
       <c r="E2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -3364,26 +3407,26 @@
         <v>163376</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D3">
         <v>1967</v>
       </c>
       <c r="E3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H3">
         <f>COUNTIF(genres,"*action*")</f>
         <v>19</v>
       </c>
       <c r="I3" s="3">
-        <f>+H3/H$19</f>
+        <f>+H3/H$20</f>
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -3392,7 +3435,7 @@
         <v>4949</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C4" t="s">
         <v>23</v>
@@ -3401,17 +3444,17 @@
         <v>1967</v>
       </c>
       <c r="E4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H4">
         <f>COUNTIF(genres,"*adventure*")</f>
         <v>16</v>
       </c>
       <c r="I4" s="3">
-        <f>+H4/H$19</f>
+        <f>+H4/H$20</f>
         <v>0.2807017543859649</v>
       </c>
     </row>
@@ -3420,7 +3463,7 @@
         <v>2998</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
@@ -3429,18 +3472,18 @@
         <v>1970</v>
       </c>
       <c r="E5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H5">
         <f>COUNTIF(genres,"*comedy*")</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" s="3">
-        <f>+H5/H$19</f>
-        <v>0.24561403508771928</v>
+        <f>+H5/H$20</f>
+        <v>0.26315789473684209</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -3448,7 +3491,7 @@
         <v>42588</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C6" t="s">
         <v>47</v>
@@ -3457,17 +3500,17 @@
         <v>1970</v>
       </c>
       <c r="E6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H6">
         <f>COUNTIF(genres,"*crime*")</f>
         <v>10</v>
       </c>
       <c r="I6" s="3">
-        <f>+H6/H$19</f>
+        <f>+H6/H$20</f>
         <v>0.17543859649122806</v>
       </c>
     </row>
@@ -3476,7 +3519,7 @@
         <v>838</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -3488,15 +3531,15 @@
         <v>15</v>
       </c>
       <c r="G7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H7">
         <f>COUNTIF(genres,"*documentary*")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I7" s="3">
-        <f>+H7/H$19</f>
-        <v>5.2631578947368418E-2</v>
+        <f>+H7/H$20</f>
+        <v>7.0175438596491224E-2</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -3504,7 +3547,7 @@
         <v>592</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
@@ -3516,14 +3559,14 @@
         <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H8">
         <f>COUNTIF(genres,"*drama*")</f>
         <v>29</v>
       </c>
       <c r="I8" s="3">
-        <f>+H8/H$19</f>
+        <f>+H8/H$20</f>
         <v>0.50877192982456143</v>
       </c>
     </row>
@@ -3532,7 +3575,7 @@
         <v>11</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C9" t="s">
         <v>0</v>
@@ -3544,14 +3587,14 @@
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H9">
         <f>COUNTIF(genres,"*fantasy*")</f>
         <v>2</v>
       </c>
       <c r="I9" s="3">
-        <f>+H9/H$19</f>
+        <f>+H9/H$20</f>
         <v>3.5087719298245612E-2</v>
       </c>
     </row>
@@ -3560,7 +3603,7 @@
         <v>17339</v>
       </c>
       <c r="B10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C10" t="s">
         <v>41</v>
@@ -3569,18 +3612,18 @@
         <v>1978</v>
       </c>
       <c r="E10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H10">
         <f>COUNTIF(genres,"*history*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" s="3">
-        <f>+H10/H$19</f>
-        <v>1.7543859649122806E-2</v>
+        <f>+H10/H$20</f>
+        <v>3.5087719298245612E-2</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -3588,7 +3631,7 @@
         <v>74849</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C11" t="s">
         <v>51</v>
@@ -3600,14 +3643,14 @@
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H11">
         <f>COUNTIF(genres,"*horror*")</f>
         <v>1</v>
       </c>
       <c r="I11" s="3">
-        <f>+H11/H$19</f>
+        <f>+H11/H$20</f>
         <v>1.7543859649122806E-2</v>
       </c>
     </row>
@@ -3616,7 +3659,7 @@
         <v>28</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C12" t="s">
         <v>2</v>
@@ -3628,14 +3671,14 @@
         <v>3</v>
       </c>
       <c r="G12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H12">
         <f>COUNTIF(genres,"*mystery*")</f>
         <v>5</v>
       </c>
       <c r="I12" s="3">
-        <f>+H12/H$19</f>
+        <f>+H12/H$20</f>
         <v>8.771929824561403E-2</v>
       </c>
     </row>
@@ -3644,7 +3687,7 @@
         <v>16972</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C13" t="s">
         <v>40</v>
@@ -3653,15 +3696,15 @@
         <v>1979</v>
       </c>
       <c r="G13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H13">
         <f>COUNTIF(genres,"*romance*")</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I13" s="3">
-        <f>+H13/H$19</f>
-        <v>0.15789473684210525</v>
+        <f>+H13/H$20</f>
+        <v>0.17543859649122806</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -3669,7 +3712,7 @@
         <v>33258</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C14" t="s">
         <v>45</v>
@@ -3678,14 +3721,14 @@
         <v>1979</v>
       </c>
       <c r="G14" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H14">
         <f>COUNTIF(genres,"*science fiction*")</f>
         <v>9</v>
       </c>
       <c r="I14" s="3">
-        <f>+H14/H$19</f>
+        <f>+H14/H$20</f>
         <v>0.15789473684210525</v>
       </c>
     </row>
@@ -3694,7 +3737,7 @@
         <v>1891</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C15" t="s">
         <v>16</v>
@@ -3706,14 +3749,14 @@
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H15">
         <f>COUNTIF(genres,"*thriller*")</f>
         <v>19</v>
       </c>
       <c r="I15" s="3">
-        <f>+H15/H$19</f>
+        <f>+H15/H$20</f>
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -3722,7 +3765,7 @@
         <v>85</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C16" t="s">
         <v>6</v>
@@ -3734,14 +3777,14 @@
         <v>7</v>
       </c>
       <c r="G16" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H16">
         <f>COUNTIF(genres,"*war*")</f>
         <v>3</v>
       </c>
       <c r="I16" s="3">
-        <f>+H16/H$19</f>
+        <f>+H16/H$20</f>
         <v>5.2631578947368418E-2</v>
       </c>
     </row>
@@ -3750,7 +3793,7 @@
         <v>78</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
@@ -3762,14 +3805,14 @@
         <v>5</v>
       </c>
       <c r="G17" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H17">
         <f>COUNTIF(genres,"*western*")</f>
         <v>4</v>
       </c>
       <c r="I17" s="3">
-        <f>+H17/H$19</f>
+        <f>+H17/H$20</f>
         <v>7.0175438596491224E-2</v>
       </c>
     </row>
@@ -3778,7 +3821,7 @@
         <v>1892</v>
       </c>
       <c r="B18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C18" t="s">
         <v>17</v>
@@ -3795,7 +3838,7 @@
         <v>87</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C19" t="s">
         <v>8</v>
@@ -3805,13 +3848,6 @@
       </c>
       <c r="E19" t="s">
         <v>9</v>
-      </c>
-      <c r="G19" t="s">
-        <v>118</v>
-      </c>
-      <c r="H19">
-        <f>ROWS(genres)</f>
-        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -3819,13 +3855,20 @@
         <v>9281</v>
       </c>
       <c r="B20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
       </c>
       <c r="D20">
         <v>1985</v>
+      </c>
+      <c r="G20" t="s">
+        <v>116</v>
+      </c>
+      <c r="H20">
+        <f>ROWS(genres)</f>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -3833,7 +3876,7 @@
         <v>11120</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C21" t="s">
         <v>34</v>
@@ -3847,7 +3890,7 @@
         <v>3525</v>
       </c>
       <c r="B22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C22" t="s">
         <v>21</v>
@@ -3861,7 +3904,7 @@
         <v>10675</v>
       </c>
       <c r="B23" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C23" t="s">
         <v>32</v>
@@ -3875,7 +3918,7 @@
         <v>89</v>
       </c>
       <c r="B24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C24" t="s">
         <v>10</v>
@@ -3892,7 +3935,7 @@
         <v>11092</v>
       </c>
       <c r="B25" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C25" t="s">
         <v>33</v>
@@ -3906,7 +3949,7 @@
         <v>11364</v>
       </c>
       <c r="B26" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C26" t="s">
         <v>35</v>
@@ -3920,7 +3963,7 @@
         <v>9869</v>
       </c>
       <c r="B27" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C27" t="s">
         <v>31</v>
@@ -3934,7 +3977,7 @@
         <v>5503</v>
       </c>
       <c r="B28" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C28" t="s">
         <v>24</v>
@@ -3948,7 +3991,7 @@
         <v>9331</v>
       </c>
       <c r="B29" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3962,7 +4005,7 @@
         <v>31643</v>
       </c>
       <c r="B30" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C30" t="s">
         <v>44</v>
@@ -3976,7 +4019,7 @@
         <v>11860</v>
       </c>
       <c r="B31" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C31" t="s">
         <v>37</v>
@@ -3990,10 +4033,10 @@
         <v>94771</v>
       </c>
       <c r="B32" t="s">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="C32" t="s">
-        <v>54</v>
+        <v>127</v>
       </c>
       <c r="D32">
         <v>1995</v>
@@ -4004,7 +4047,7 @@
         <v>4477</v>
       </c>
       <c r="B33" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C33" t="s">
         <v>22</v>
@@ -4018,7 +4061,7 @@
         <v>9772</v>
       </c>
       <c r="B34" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C34" t="s">
         <v>30</v>
@@ -4032,7 +4075,7 @@
         <v>6068</v>
       </c>
       <c r="B35" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C35" t="s">
         <v>25</v>
@@ -4046,7 +4089,7 @@
         <v>12618</v>
       </c>
       <c r="B36" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C36" t="s">
         <v>38</v>
@@ -4060,7 +4103,7 @@
         <v>2655</v>
       </c>
       <c r="B37" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C37" t="s">
         <v>18</v>
@@ -4077,7 +4120,7 @@
         <v>8665</v>
       </c>
       <c r="B38" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C38" t="s">
         <v>26</v>
@@ -4091,7 +4134,7 @@
         <v>11375</v>
       </c>
       <c r="B39" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C39" t="s">
         <v>36</v>
@@ -4105,7 +4148,7 @@
         <v>76180</v>
       </c>
       <c r="B40" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C40" t="s">
         <v>52</v>
@@ -4119,7 +4162,7 @@
         <v>9754</v>
       </c>
       <c r="B41" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C41" t="s">
         <v>29</v>
@@ -4133,7 +4176,7 @@
         <v>57656</v>
       </c>
       <c r="B42" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -4147,7 +4190,7 @@
         <v>217</v>
       </c>
       <c r="B43" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C43" t="s">
         <v>11</v>
@@ -4164,7 +4207,7 @@
         <v>15577</v>
       </c>
       <c r="B44" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C44" t="s">
         <v>39</v>
@@ -4178,7 +4221,7 @@
         <v>18480</v>
       </c>
       <c r="B45" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C45" t="s">
         <v>42</v>
@@ -4192,7 +4235,7 @@
         <v>27569</v>
       </c>
       <c r="B46" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C46" t="s">
         <v>43</v>
@@ -4206,7 +4249,7 @@
         <v>38357</v>
       </c>
       <c r="B47" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C47" t="s">
         <v>46</v>
@@ -4220,7 +4263,7 @@
         <v>49849</v>
       </c>
       <c r="B48" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C48" t="s">
         <v>48</v>
@@ -4234,7 +4277,7 @@
         <v>80274</v>
       </c>
       <c r="B49" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C49" t="s">
         <v>53</v>
@@ -4248,10 +4291,10 @@
         <v>109410</v>
       </c>
       <c r="B50" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D50">
         <v>2013</v>
@@ -4262,10 +4305,10 @@
         <v>109443</v>
       </c>
       <c r="B51" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D51">
         <v>2013</v>
@@ -4276,10 +4319,10 @@
         <v>115348</v>
       </c>
       <c r="B52" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C52" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D52">
         <v>2013</v>
@@ -4290,10 +4333,10 @@
         <v>173467</v>
       </c>
       <c r="B53" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C53" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D53">
         <v>2013</v>
@@ -4304,10 +4347,10 @@
         <v>213831</v>
       </c>
       <c r="B54" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="C54" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D54">
         <v>2013</v>
@@ -4318,10 +4361,10 @@
         <v>138103</v>
       </c>
       <c r="B55" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C55" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D55">
         <v>2014</v>
@@ -4332,10 +4375,10 @@
         <v>140607</v>
       </c>
       <c r="B56" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C56" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D56">
         <v>2015</v>
@@ -4346,10 +4389,10 @@
         <v>292277</v>
       </c>
       <c r="B57" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C57" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D57">
         <v>2015</v>
@@ -4360,10 +4403,10 @@
         <v>293863</v>
       </c>
       <c r="B58" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C58" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D58">
         <v>2015</v>
@@ -4371,8 +4414,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:E58" xr:uid="{5DDCC3E0-9356-6E46-9F8B-30828173D068}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G3:I17">
-    <sortCondition ref="G3:G17"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G3:I18">
+    <sortCondition ref="G3:G18"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
